--- a/SIDTEFIM/BDSidtefim.xlsx
+++ b/SIDTEFIM/BDSidtefim.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rguevarav-home\SIDTEFIM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D2FC90-40B9-478C-BCDF-FBDC0BD4D530}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C262107-7BA0-43FD-B62E-98033BD9F848}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{79BF1215-C189-4EB4-AA31-48A6DCA52CD6}"/>
+    <workbookView xWindow="3735" yWindow="2550" windowWidth="20055" windowHeight="10980" activeTab="3" xr2:uid="{79BF1215-C189-4EB4-AA31-48A6DCA52CD6}"/>
   </bookViews>
   <sheets>
     <sheet name="»BDSidtefim" sheetId="1" r:id="rId1"/>
@@ -7652,10 +7652,10 @@
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9FF1CBD6-CE65-4CD3-9173-CA925DC48E87}" name="Tabla4" displayName="Tabla4" ref="A1:C66" totalsRowShown="0" headerRowDxfId="84" dataDxfId="83">
-  <autoFilter ref="A1:C66" xr:uid="{97858E66-0EBE-4D94-B564-26014450F488}">
-    <filterColumn colId="2">
+  <autoFilter ref="A1:C66" xr:uid="{92749BEE-41E4-4647-AF60-8CFC722C2009}">
+    <filterColumn colId="1">
       <filters>
-        <filter val="1"/>
+        <filter val="ENVIAR A ARCHIVO INMIGRACION"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -8047,7 +8047,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16238EE0-2E11-4BA7-B6B9-C122020D38BD}">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -19746,7 +19746,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H31" sqref="H31"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20003,9 +20003,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6347615C-5CA3-4404-8D42-2B68539974B2}">
   <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
+      <selection pane="bottomLeft" activeCell="H69" sqref="H69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20056,7 +20056,7 @@
         <v>INSERT INTO SidtefimEtapa(sDescripcion, bActivo) VALUES('REVISION DE DOCUMENTOS',0)</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -20356,7 +20356,7 @@
         <v>INSERT INTO SidtefimEtapa(sDescripcion, bActivo) VALUES('CONFORMIDAD UCI',0)</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>27</v>
       </c>
@@ -20491,7 +20491,7 @@
         <v>INSERT INTO SidtefimEtapa(sDescripcion, bActivo) VALUES('RECEPCIÓN DNAC',0)</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
         <v>37</v>
       </c>
@@ -20506,7 +20506,7 @@
         <v>INSERT INTO SidtefimEtapa(sDescripcion, bActivo) VALUES('EVALUACION DIRECTOR',1)</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13">
         <v>38</v>
       </c>
@@ -20536,7 +20536,7 @@
         <v>INSERT INTO SidtefimEtapa(sDescripcion, bActivo) VALUES('INSCRIPCION',0)</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
         <v>40</v>
       </c>
@@ -20551,7 +20551,7 @@
         <v>INSERT INTO SidtefimEtapa(sDescripcion, bActivo) VALUES('FIRMA DIR. NACIONALIZACION',1)</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
         <v>41</v>
       </c>
@@ -20566,7 +20566,7 @@
         <v>INSERT INTO SidtefimEtapa(sDescripcion, bActivo) VALUES('APROBACION DE REGISTRO',1)</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13">
         <v>42</v>
       </c>
@@ -20581,7 +20581,7 @@
         <v>INSERT INTO SidtefimEtapa(sDescripcion, bActivo) VALUES('ENTREGA DE TITULO',1)</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
         <v>43</v>
       </c>
@@ -20596,7 +20596,7 @@
         <v>INSERT INTO SidtefimEtapa(sDescripcion, bActivo) VALUES('FIRMA DIRECTOR GENERAL',1)</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13">
         <v>44</v>
       </c>
@@ -20626,7 +20626,7 @@
         <v>INSERT INTO SidtefimEtapa(sDescripcion, bActivo) VALUES('RESOLUCIÓN',0)</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13">
         <v>46</v>
       </c>
@@ -20656,7 +20656,7 @@
         <v>INSERT INTO SidtefimEtapa(sDescripcion, bActivo) VALUES('FIRMA DE MINISTRO',0)</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="13">
         <v>48</v>
       </c>

--- a/SIDTEFIM/BDSidtefim.xlsx
+++ b/SIDTEFIM/BDSidtefim.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rguevarav-home\SIDTEFIM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Mega Cloud\PROYECTOS\doc's-sitran\SIDTEFIM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C262107-7BA0-43FD-B62E-98033BD9F848}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A07C38-D3FC-4493-AF4A-9671D73C10C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3735" yWindow="2550" windowWidth="20055" windowHeight="10980" activeTab="3" xr2:uid="{79BF1215-C189-4EB4-AA31-48A6DCA52CD6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{79BF1215-C189-4EB4-AA31-48A6DCA52CD6}"/>
   </bookViews>
   <sheets>
     <sheet name="»BDSidtefim" sheetId="1" r:id="rId1"/>
@@ -34,12 +34,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -7532,7 +7526,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D4DD72A4-C118-4FAF-98ED-2B15CD191AEA}" name="Tabla3" displayName="Tabla3" ref="A1:D8" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94">
   <autoFilter ref="A1:D8" xr:uid="{4C695019-FA14-4AA0-878F-49FCF9318E78}"/>
-  <sortState ref="A2:D8">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D8">
     <sortCondition ref="B1:B8"/>
   </sortState>
   <tableColumns count="4">
@@ -7563,7 +7557,7 @@
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{06B1DE33-7087-4E7F-87B8-5751B148C947}" name="Tabla3912" displayName="Tabla3912" ref="A1:G2" insertRow="1" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
   <autoFilter ref="A1:G2" xr:uid="{4C695019-FA14-4AA0-878F-49FCF9318E78}"/>
-  <sortState ref="A2:C2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C2">
     <sortCondition ref="A1:A2"/>
   </sortState>
   <tableColumns count="7">
@@ -7582,7 +7576,7 @@
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{EFCB1F75-C212-45DC-84D8-BAF860A17EAD}" name="Tabla39121314" displayName="Tabla39121314" ref="A1:E2" insertRow="1" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
   <autoFilter ref="A1:E2" xr:uid="{4C695019-FA14-4AA0-878F-49FCF9318E78}"/>
-  <sortState ref="A2:C2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C2">
     <sortCondition ref="A1:A2"/>
   </sortState>
   <tableColumns count="5">
@@ -7638,7 +7632,7 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{19BCAD5D-2A69-4636-B720-B1E8BE6846BD}" name="Tabla39" displayName="Tabla39" ref="A1:C7" totalsRowShown="0" headerRowDxfId="89" dataDxfId="88">
   <autoFilter ref="A1:C7" xr:uid="{4C695019-FA14-4AA0-878F-49FCF9318E78}"/>
-  <sortState ref="A2:C7">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C7">
     <sortCondition ref="A1:A7"/>
   </sortState>
   <tableColumns count="3">
@@ -7652,10 +7646,10 @@
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9FF1CBD6-CE65-4CD3-9173-CA925DC48E87}" name="Tabla4" displayName="Tabla4" ref="A1:C66" totalsRowShown="0" headerRowDxfId="84" dataDxfId="83">
-  <autoFilter ref="A1:C66" xr:uid="{92749BEE-41E4-4647-AF60-8CFC722C2009}">
-    <filterColumn colId="1">
+  <autoFilter ref="A1:C66" xr:uid="{E6882D70-74CF-48C5-8AFF-5C54209E8FBF}">
+    <filterColumn colId="2">
       <filters>
-        <filter val="ENVIAR A ARCHIVO INMIGRACION"/>
+        <filter val="1"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -19744,9 +19738,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A950E948-BC65-4569-B7CD-1FCEA0BF2B23}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20003,9 +19997,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6347615C-5CA3-4404-8D42-2B68539974B2}">
   <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H69" sqref="H69"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20056,7 +20050,7 @@
         <v>INSERT INTO SidtefimEtapa(sDescripcion, bActivo) VALUES('REVISION DE DOCUMENTOS',0)</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -20356,7 +20350,7 @@
         <v>INSERT INTO SidtefimEtapa(sDescripcion, bActivo) VALUES('CONFORMIDAD UCI',0)</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>27</v>
       </c>
@@ -20491,7 +20485,7 @@
         <v>INSERT INTO SidtefimEtapa(sDescripcion, bActivo) VALUES('RECEPCIÓN DNAC',0)</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
         <v>37</v>
       </c>
@@ -20506,7 +20500,7 @@
         <v>INSERT INTO SidtefimEtapa(sDescripcion, bActivo) VALUES('EVALUACION DIRECTOR',1)</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="13">
         <v>38</v>
       </c>
@@ -20536,7 +20530,7 @@
         <v>INSERT INTO SidtefimEtapa(sDescripcion, bActivo) VALUES('INSCRIPCION',0)</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
         <v>40</v>
       </c>
@@ -20551,7 +20545,7 @@
         <v>INSERT INTO SidtefimEtapa(sDescripcion, bActivo) VALUES('FIRMA DIR. NACIONALIZACION',1)</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
         <v>41</v>
       </c>
@@ -20566,7 +20560,7 @@
         <v>INSERT INTO SidtefimEtapa(sDescripcion, bActivo) VALUES('APROBACION DE REGISTRO',1)</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="13">
         <v>42</v>
       </c>
@@ -20581,7 +20575,7 @@
         <v>INSERT INTO SidtefimEtapa(sDescripcion, bActivo) VALUES('ENTREGA DE TITULO',1)</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
         <v>43</v>
       </c>
@@ -20596,7 +20590,7 @@
         <v>INSERT INTO SidtefimEtapa(sDescripcion, bActivo) VALUES('FIRMA DIRECTOR GENERAL',1)</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="13">
         <v>44</v>
       </c>
@@ -20626,7 +20620,7 @@
         <v>INSERT INTO SidtefimEtapa(sDescripcion, bActivo) VALUES('RESOLUCIÓN',0)</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="13">
         <v>46</v>
       </c>
@@ -20656,7 +20650,7 @@
         <v>INSERT INTO SidtefimEtapa(sDescripcion, bActivo) VALUES('FIRMA DE MINISTRO',0)</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="13">
         <v>48</v>
       </c>

--- a/SIDTEFIM/BDSidtefim.xlsx
+++ b/SIDTEFIM/BDSidtefim.xlsx
@@ -1,46 +1,54 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Mega Cloud\PROYECTOS\doc's-sitran\SIDTEFIM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rguevarav-home\SIDTEFIM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A07C38-D3FC-4493-AF4A-9671D73C10C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD22C2F-28C4-47E6-B4B8-78037A5F881C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{79BF1215-C189-4EB4-AA31-48A6DCA52CD6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{79BF1215-C189-4EB4-AA31-48A6DCA52CD6}"/>
   </bookViews>
   <sheets>
     <sheet name="»BDSidtefim" sheetId="1" r:id="rId1"/>
-    <sheet name="SidtefimEstado" sheetId="4" r:id="rId2"/>
-    <sheet name="SidtefimTipoObservacion" sheetId="10" r:id="rId3"/>
-    <sheet name="SidtefimEtapa" sheetId="5" r:id="rId4"/>
-    <sheet name="SidtefimProcedimiento" sheetId="2" r:id="rId5"/>
-    <sheet name="SidtefimDependencia" sheetId="3" r:id="rId6"/>
-    <sheet name="SidtefimPais" sheetId="6" r:id="rId7"/>
-    <sheet name="SidtefimTipoSolicitud" sheetId="7" r:id="rId8"/>
-    <sheet name="SidtefimTipoTramite" sheetId="8" r:id="rId9"/>
-    <sheet name="SidtefimTipoDocumento" sheetId="11" r:id="rId10"/>
-    <sheet name="SidtefimUsuario" sheetId="13" r:id="rId11"/>
-    <sheet name="SidtefimCitas" sheetId="15" r:id="rId12"/>
-    <sheet name="SidtefimCitaDiaConfig" sheetId="17" r:id="rId13"/>
-    <sheet name="SidtefimRequisito" sheetId="18" r:id="rId14"/>
-    <sheet name="SidtefimNoti" sheetId="19" r:id="rId15"/>
-    <sheet name="SidtefimNoti (2)" sheetId="20" r:id="rId16"/>
+    <sheet name="»BDSidtefim (2)" sheetId="21" r:id="rId2"/>
+    <sheet name="»Módulos" sheetId="22" r:id="rId3"/>
+    <sheet name="SidtefimEstado" sheetId="4" r:id="rId4"/>
+    <sheet name="SidtefimTipoObservacion" sheetId="10" r:id="rId5"/>
+    <sheet name="SidtefimEtapa" sheetId="5" r:id="rId6"/>
+    <sheet name="SidtefimProcedimiento" sheetId="2" r:id="rId7"/>
+    <sheet name="SidtefimDependencia" sheetId="3" r:id="rId8"/>
+    <sheet name="SidtefimPais" sheetId="6" r:id="rId9"/>
+    <sheet name="SidtefimTipoSolicitud" sheetId="7" r:id="rId10"/>
+    <sheet name="SidtefimTipoTramite" sheetId="8" r:id="rId11"/>
+    <sheet name="SidtefimTipoDocumento" sheetId="11" r:id="rId12"/>
+    <sheet name="SidtefimUsuario" sheetId="13" r:id="rId13"/>
+    <sheet name="SidtefimCitas" sheetId="15" r:id="rId14"/>
+    <sheet name="SidtefimCitaDiaConfig" sheetId="17" r:id="rId15"/>
+    <sheet name="SidtefimRequisito" sheetId="18" r:id="rId16"/>
+    <sheet name="SidtefimNoti" sheetId="19" r:id="rId17"/>
+    <sheet name="SidtefimNoti (2)" sheetId="20" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3821" uniqueCount="1885">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3891" uniqueCount="1952">
   <si>
     <t>sLogin</t>
   </si>
@@ -5695,6 +5703,208 @@
   </si>
   <si>
     <t>nIdProcNacSubsana</t>
+  </si>
+  <si>
+    <t>PROCEDIMIENTOS</t>
+  </si>
+  <si>
+    <t>SDGTM</t>
+  </si>
+  <si>
+    <t>SDGTF</t>
+  </si>
+  <si>
+    <t>Ley y Reglamento</t>
+  </si>
+  <si>
+    <t>Normativa legal vigente</t>
+  </si>
+  <si>
+    <t>Convenios Bilaterales</t>
+  </si>
+  <si>
+    <t>Decisiones CAN</t>
+  </si>
+  <si>
+    <t>Comunicados y documentos</t>
+  </si>
+  <si>
+    <t>Planificación y Organización</t>
+  </si>
+  <si>
+    <t>Normativa Interna</t>
+  </si>
+  <si>
+    <t>Informes Tecnicos</t>
+  </si>
+  <si>
+    <t>Resoluciones jefaturas</t>
+  </si>
+  <si>
+    <t>Resoluciones de Superitendencia</t>
+  </si>
+  <si>
+    <t>Resuluciones de Directorales</t>
+  </si>
+  <si>
+    <t>Resuluciones de DIGEMIN</t>
+  </si>
+  <si>
+    <t>Documentos Normativos</t>
+  </si>
+  <si>
+    <t>Lineamientos Generales 
+para la DGTFM(NORMATIVA)</t>
+  </si>
+  <si>
+    <t>SidInterpol</t>
+  </si>
+  <si>
+    <t>nIdInterpol</t>
+  </si>
+  <si>
+    <t>sOrigen</t>
+  </si>
+  <si>
+    <t>sApellido</t>
+  </si>
+  <si>
+    <t>sNombres</t>
+  </si>
+  <si>
+    <t>sSexo</t>
+  </si>
+  <si>
+    <t>sCedula</t>
+  </si>
+  <si>
+    <t>sPasaporte</t>
+  </si>
+  <si>
+    <t>dFechaSancion</t>
+  </si>
+  <si>
+    <t>sMotivo</t>
+  </si>
+  <si>
+    <t>dFechaNacimiento</t>
+  </si>
+  <si>
+    <t>Elaboración</t>
+  </si>
+  <si>
+    <t>Aprobación</t>
+  </si>
+  <si>
+    <t>Visualizar</t>
+  </si>
+  <si>
+    <t>CITAS_CCM_ESP_RES</t>
+  </si>
+  <si>
+    <t>Consultar Citas CCM Especial Residente</t>
+  </si>
+  <si>
+    <t>CITAS_LINEA_PAS</t>
+  </si>
+  <si>
+    <t>CONSULTAR CITAS PARA PASAPORTE</t>
+  </si>
+  <si>
+    <t>CONFIG_ANTEC_INM</t>
+  </si>
+  <si>
+    <t>Configuración de Consulta de Antecedentes de INM</t>
+  </si>
+  <si>
+    <t>CONS_ANTECEDEN_TIEMPO_REAL_INM</t>
+  </si>
+  <si>
+    <t>Consulta de Antecedentes en Tiempo real de INM</t>
+  </si>
+  <si>
+    <t>CONS_ANTECEDENT_REALIZADAS_INM</t>
+  </si>
+  <si>
+    <t>Consulta Verificaciones Realizadas de INM</t>
+  </si>
+  <si>
+    <t>CONSENTIDAD</t>
+  </si>
+  <si>
+    <t>Consulta Entidad</t>
+  </si>
+  <si>
+    <t>CONSPERMFIRMCONTRATO</t>
+  </si>
+  <si>
+    <t>Consulta a Tramite de Permiso</t>
+  </si>
+  <si>
+    <t>CONSPRORROGAPERM</t>
+  </si>
+  <si>
+    <t>Consulta a Tramite de Prorroga</t>
+  </si>
+  <si>
+    <t>CONSREQUISITOS</t>
+  </si>
+  <si>
+    <t>Consulta de requisitos</t>
+  </si>
+  <si>
+    <t>CONSTRAMPENDIENTE</t>
+  </si>
+  <si>
+    <t>Consulta de Tramites pedientes</t>
+  </si>
+  <si>
+    <t>CONSULTA_ENTIDAD</t>
+  </si>
+  <si>
+    <t>CONSULTA_PRORROGAPERM</t>
+  </si>
+  <si>
+    <t>CONSULTAPAGOSHIST</t>
+  </si>
+  <si>
+    <t>Consultar los pagos del JEXTRANJEROS en el SIM-INM</t>
+  </si>
+  <si>
+    <t>CONSULTAPERSONASHIS</t>
+  </si>
+  <si>
+    <t>Consultar personas de JEXTRANJEROS en el SIM-INM</t>
+  </si>
+  <si>
+    <t>CONSULTATRAMITES</t>
+  </si>
+  <si>
+    <t>Consultar Tramites</t>
+  </si>
+  <si>
+    <t>DESBLK_ANTEC_INM</t>
+  </si>
+  <si>
+    <t>Desbloqueo de Consulta de Antecedentes de INM</t>
+  </si>
+  <si>
+    <t>EDITAR_FC_MTPE</t>
+  </si>
+  <si>
+    <t>Consulta de Firma de Contratos MTPE</t>
+  </si>
+  <si>
+    <t>VER_FICHAPAGOS</t>
+  </si>
+  <si>
+    <t>Consulta a ficha de pagos</t>
+  </si>
+  <si>
+    <t>NOMBRE</t>
+  </si>
+  <si>
+    <t>DESCRIPCION</t>
   </si>
 </sst>
 </file>
@@ -5704,7 +5914,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5780,6 +5990,60 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -5825,7 +6089,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -5878,11 +6142,78 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -5943,6 +6274,66 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7526,7 +7917,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D4DD72A4-C118-4FAF-98ED-2B15CD191AEA}" name="Tabla3" displayName="Tabla3" ref="A1:D8" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94">
   <autoFilter ref="A1:D8" xr:uid="{4C695019-FA14-4AA0-878F-49FCF9318E78}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D8">
+  <sortState ref="A2:D8">
     <sortCondition ref="B1:B8"/>
   </sortState>
   <tableColumns count="4">
@@ -7557,7 +7948,7 @@
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{06B1DE33-7087-4E7F-87B8-5751B148C947}" name="Tabla3912" displayName="Tabla3912" ref="A1:G2" insertRow="1" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
   <autoFilter ref="A1:G2" xr:uid="{4C695019-FA14-4AA0-878F-49FCF9318E78}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C2">
+  <sortState ref="A2:C2">
     <sortCondition ref="A1:A2"/>
   </sortState>
   <tableColumns count="7">
@@ -7576,7 +7967,7 @@
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{EFCB1F75-C212-45DC-84D8-BAF860A17EAD}" name="Tabla39121314" displayName="Tabla39121314" ref="A1:E2" insertRow="1" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
   <autoFilter ref="A1:E2" xr:uid="{4C695019-FA14-4AA0-878F-49FCF9318E78}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C2">
+  <sortState ref="A2:C2">
     <sortCondition ref="A1:A2"/>
   </sortState>
   <tableColumns count="5">
@@ -7632,7 +8023,7 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{19BCAD5D-2A69-4636-B720-B1E8BE6846BD}" name="Tabla39" displayName="Tabla39" ref="A1:C7" totalsRowShown="0" headerRowDxfId="89" dataDxfId="88">
   <autoFilter ref="A1:C7" xr:uid="{4C695019-FA14-4AA0-878F-49FCF9318E78}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C7">
+  <sortState ref="A2:C7">
     <sortCondition ref="A1:A7"/>
   </sortState>
   <tableColumns count="3">
@@ -8042,7 +8433,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8585,12 +8976,2033 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F8FE26D-28F6-4742-A77C-1D1E20031D32}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C2" s="15">
+        <v>1</v>
+      </c>
+      <c r="E2" t="str">
+        <f>"INSERT INTO SidtefimTipoSolicitud VALUES('"&amp;Tabla6[[#This Row],[sIdTipoSolicitud]]&amp;"',"&amp;Tabla6[[#This Row],[bActivo]]&amp;",'"&amp;Tabla6[[#This Row],[sDescripcion]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoSolicitud VALUES('NAC',1,'Nacionalización')</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{166F7E67-9309-40BB-B701-C86C4350EBBF}">
+  <dimension ref="A1:G93"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" customWidth="1"/>
+    <col min="2" max="2" width="57.42578125" style="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>929</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D2" s="13">
+        <v>1</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'&lt;NO DEFINIDO&gt;','NNN','U')</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="13">
+        <v>1</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>1406</v>
+      </c>
+      <c r="G3" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'EXPEDICION DE PASAPORTE','EXP','P')</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="13">
+        <v>1</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>1408</v>
+      </c>
+      <c r="G4" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'REVALIDACION DE PASAPORTE','RVP','P')</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="13">
+        <v>1</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>1410</v>
+      </c>
+      <c r="G5" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'ANULACION DE PASAPORTE','ANP','P')</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>5</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="13">
+        <v>1</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>1412</v>
+      </c>
+      <c r="G6" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'PASAPORTE COLECTIVO','PCO','P')</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <v>6</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="13">
+        <v>1</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>1414</v>
+      </c>
+      <c r="G7" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'ANULACION TRAMITE PASAPORTE','ATP','P')</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <v>7</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>1416</v>
+      </c>
+      <c r="D8" s="13">
+        <v>1</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>1417</v>
+      </c>
+      <c r="G8" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'ANULACION DE MOVIMIENTO MIGRATORIO','AMM','M')</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>8</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>1416</v>
+      </c>
+      <c r="D9" s="13">
+        <v>1</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>1419</v>
+      </c>
+      <c r="G9" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'RECTIFICACION DE  MOVIMIENTO MIGRATORIO','RMM','M')</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>9</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="13">
+        <v>1</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="G10" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'TRAMITE ASOCIACION','APA','P')</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
+        <v>10</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="13">
+        <v>1</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>1422</v>
+      </c>
+      <c r="G11" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'TRAMITE DESASOCIACION','DPA','P')</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
+        <v>11</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="13">
+        <v>0</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>1424</v>
+      </c>
+      <c r="G12" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(0,'RECHAZO PASAPORTE','RPA','P')</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D13" s="13">
+        <v>0</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>1426</v>
+      </c>
+      <c r="G13" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(0,'RETENCION DE EXPEDIENTE','RET','U')</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
+        <v>13</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="13">
+        <v>0</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>1428</v>
+      </c>
+      <c r="G14" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(0,'RECHAZO PASAPORTE CONTROL','RPC','P')</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
+        <v>14</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="13">
+        <v>1</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>1430</v>
+      </c>
+      <c r="G15" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'CANCELAR IMPRESION DE PASAPORTE','CIP','P')</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
+        <v>15</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D16" s="13">
+        <v>1</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>1432</v>
+      </c>
+      <c r="G16" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'OFICIO MOVIMIENTO MIGRATORIO','OMM','U')</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
+        <v>16</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D17" s="13">
+        <v>1</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>1434</v>
+      </c>
+      <c r="G17" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'INFORME MOVIMIENTO MIGRATORIO','IMM','U')</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
+        <v>17</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D18" s="13">
+        <v>1</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G18" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'CERTIFICADO MOVIMIENTO MIGRATORIO','CMM','U')</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="13">
+        <v>18</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D19" s="13">
+        <v>1</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>1438</v>
+      </c>
+      <c r="G19" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'CERTIFICADO DE PASAPORTE','CDP','U')</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
+        <v>19</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D20" s="13">
+        <v>1</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>1440</v>
+      </c>
+      <c r="G20" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'CERTIFICADO INSCRIPC. REGISTRO CENTRAL EXTRANJERÍA','CRE','U')</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="13">
+        <v>20</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D21" s="13">
+        <v>1</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>1442</v>
+      </c>
+      <c r="G21" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'COPIAS CERTIFICADAS DOCUMENTOS ORIG. CONTEN. EXPE.','LCE','U')</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="13">
+        <v>21</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D22" s="13">
+        <v>1</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>1444</v>
+      </c>
+      <c r="G22" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'FACILIDADES PERICIAS POLICIALES','FPP','U')</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="13">
+        <v>22</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D23" s="13">
+        <v>1</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>1446</v>
+      </c>
+      <c r="G23" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'OFICIOS CERTIFICANDO RESIDENCIA','OCR','U')</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="13">
+        <v>23</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D24" s="13">
+        <v>1</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G24" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'COPIA AUTENTICADA DE DOCUMENTOS SUSTENTATORIOS DE','DSP','U')</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="13">
+        <v>24</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D25" s="13">
+        <v>1</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>1450</v>
+      </c>
+      <c r="G25" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'INFORME DE TITULARIDAD DE PASAPORTE','ITP','U')</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="13">
+        <v>25</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D26" s="13">
+        <v>1</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>1452</v>
+      </c>
+      <c r="G26" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'REMISION DE CUADROS NUMÉRICOS EXP Y REV DE PPTE','CNP','U')</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="13">
+        <v>26</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D27" s="13">
+        <v>1</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>1454</v>
+      </c>
+      <c r="G27" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'REMISON DE SALVOCONDUCTOS CONSULARES PCM Y CONSULA','RSC','U')</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="13">
+        <v>27</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D28" s="13">
+        <v>1</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>1456</v>
+      </c>
+      <c r="G28" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'VERIFICACION DE AUTENTICIDAD DE PPTE','VAP','U')</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="13">
+        <v>28</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D29" s="13">
+        <v>1</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>1458</v>
+      </c>
+      <c r="G29" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'IMPRESIONES DACTILARES, GENERALES DE LEY','GDL','U')</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="13">
+        <v>29</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D30" s="13">
+        <v>1</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>1460</v>
+      </c>
+      <c r="G30" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'OTROS','OTR','U')</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="13">
+        <v>30</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D31" s="13">
+        <v>1</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="G31" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'VERIFICACION DE DATOS','VRF','U')</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="13">
+        <v>31</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D32" s="13">
+        <v>1</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>1464</v>
+      </c>
+      <c r="G32" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'CAMBIO DE CONSULADO - VISA','COV','I')</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="13">
+        <v>33</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D33" s="13">
+        <v>1</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>1466</v>
+      </c>
+      <c r="G33" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'EXONERACIÓN PAGO - PRORROGA RE','EXR','I')</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="13">
+        <v>34</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D34" s="13">
+        <v>1</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>1468</v>
+      </c>
+      <c r="G34" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'PAGO TASA ANUAL EXTRANJERÍA','PAG','I')</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="13">
+        <v>36</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D35" s="13">
+        <v>1</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>1469</v>
+      </c>
+      <c r="G35" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'MODIFICACION DATOS RCE','MRC','I')</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="13">
+        <v>39</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D36" s="13">
+        <v>1</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>1471</v>
+      </c>
+      <c r="G36" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'PERMISO DE VIAJE','PEV','I')</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="13">
+        <v>40</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D37" s="13">
+        <v>1</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>984</v>
+      </c>
+      <c r="G37" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'SALIDAS CONCLUIDAS TEMPORALES','SAL','I')</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="13">
+        <v>43</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D38" s="13">
+        <v>1</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>1474</v>
+      </c>
+      <c r="G38" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'CERTIFICADO DE VISA','CER','I')</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="13">
+        <v>44</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D39" s="13">
+        <v>1</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>1476</v>
+      </c>
+      <c r="G39" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'ORDEN DE SALIDA Y REGISTRO EXPULSADOS','OSR','I')</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="13">
+        <v>45</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D40" s="13">
+        <v>1</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>1478</v>
+      </c>
+      <c r="G40" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'CANC. PERMANENCIA/RESIDENCIA X OFICIO','CPR','I')</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="13">
+        <v>54</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D41" s="13">
+        <v>0</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>1004</v>
+      </c>
+      <c r="G41" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(0,'Solicitud de Visa MRE','SOM','I')</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="13">
+        <v>55</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D42" s="13">
+        <v>1</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>1481</v>
+      </c>
+      <c r="G42" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'SOLICITUD DE VISA','SOL','I')</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="13">
+        <v>56</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D43" s="13">
+        <v>1</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>1483</v>
+      </c>
+      <c r="G43" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'PRORROGA DE PERMANENCIA','PRP','I')</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="13">
+        <v>57</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D44" s="13">
+        <v>1</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>1485</v>
+      </c>
+      <c r="G44" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'PRORROGA DE RESIDENCIA','PRR','I')</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="13">
+        <v>58</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D45" s="13">
+        <v>1</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>1487</v>
+      </c>
+      <c r="G45" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'CAMBIO DE CALIDAD MIGRATORIA','CCM','I')</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="13">
+        <v>59</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D46" s="13">
+        <v>1</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>1489</v>
+      </c>
+      <c r="G46" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'CAMBIO DE CLASE DE VISA','CCV','I')</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="13">
+        <v>60</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D47" s="13">
+        <v>1</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>1491</v>
+      </c>
+      <c r="G47" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'PERMISO PARA TRABAJAR','PET','I')</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="13">
+        <v>61</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D48" s="13">
+        <v>1</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>1493</v>
+      </c>
+      <c r="G48" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'PERMISO ESP. FIRMAR CONTRATOS','PEF','I')</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="13">
+        <v>62</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D49" s="13">
+        <v>1</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>1495</v>
+      </c>
+      <c r="G49" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'INSCR.REG.CENTRAL EXTRANJERÍA','INS','I')</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="13">
+        <v>64</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D50" s="13">
+        <v>1</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>1497</v>
+      </c>
+      <c r="G50" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'DUPLICADO DE CE','DUP','I')</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="13">
+        <v>65</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D51" s="13">
+        <v>1</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>1499</v>
+      </c>
+      <c r="G51" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'EXONERACIÓN PAGO TASA ANUAL','EXT','I')</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="13">
+        <v>66</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D52" s="13">
+        <v>1</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="G52" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'CANCE.RESIDENCIA Y SALIDA DEF.','CAN','I')</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="13">
+        <v>67</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D53" s="13">
+        <v>1</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>1502</v>
+      </c>
+      <c r="G53" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'TRASLADO DE SELLOS PARA RESIDENTES E INMIGRANTES','TRA','I')</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="13">
+        <v>68</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D54" s="13">
+        <v>1</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>1504</v>
+      </c>
+      <c r="G54" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'CANCELACIÓN TRÁMITE','CTR','I')</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="13">
+        <v>69</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D55" s="13">
+        <v>1</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>1507</v>
+      </c>
+      <c r="G55" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'INS HIJOS DE PERUANOS NAC. EN EXT. MENORES DE EDAD','IME','T')</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="13">
+        <v>70</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D56" s="13">
+        <v>1</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>1509</v>
+      </c>
+      <c r="G56" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'COPIA CERTIFICADA DE CARNE DE EXTRANJERIA','CCE','I')</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="13">
+        <v>71</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D57" s="13">
+        <v>1</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G57" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'INS HIJOS DE PERUANOS NAC. EN EXT. MAYORES DE EDAD','IMA','T')</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="13">
+        <v>72</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D58" s="13">
+        <v>1</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>1513</v>
+      </c>
+      <c r="G58" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'INS HIJOS DE EXT. NAC.EN EXT.RES PERÚ DESDE 5 AÑOS','IER','T')</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="13">
+        <v>73</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D59" s="13">
+        <v>1</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>1515</v>
+      </c>
+      <c r="G59" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'INS PERUANO POR MATRIMONIO','IPM','T')</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="13">
+        <v>74</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D60" s="13">
+        <v>1</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>1517</v>
+      </c>
+      <c r="G60" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'COPIA CERTIFICADA DE REGISTRO DE INSCRIPCIÓN','CCT','T')</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="13">
+        <v>75</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D61" s="13">
+        <v>1</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>1519</v>
+      </c>
+      <c r="G61" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'DUPLICADO DE REGISTRO DE INSCRIPCIÓN','DRI','T')</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="13">
+        <v>76</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D62" s="13">
+        <v>1</v>
+      </c>
+      <c r="E62" s="13" t="s">
+        <v>1521</v>
+      </c>
+      <c r="G62" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'OBTENCIÓN NACIONALIDAD PERUANA POR NATURALIZACIÓN','ONN','T')</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="13">
+        <v>77</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D63" s="13">
+        <v>1</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>1523</v>
+      </c>
+      <c r="G63" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'ACTUALIZACIÓN DE DATOS EN REGISTROS DE INSCRIPCIÓN','ADR','T')</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="13">
+        <v>78</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D64" s="13">
+        <v>1</v>
+      </c>
+      <c r="E64" s="13" t="s">
+        <v>1525</v>
+      </c>
+      <c r="G64" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'OBTENCIÓN DE LA DOBLE NACIONALIDAD','ODN','T')</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="13">
+        <v>79</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D65" s="13">
+        <v>1</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>1527</v>
+      </c>
+      <c r="G65" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'RECUPERACIÓN DE LA NACIONALIDAD PERUANA','RNP','T')</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="13">
+        <v>80</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D66" s="13">
+        <v>0</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>1529</v>
+      </c>
+      <c r="G66" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(0,'DUPLICADO DE TÍTULO DE NACIONALIDAD','DTN','T')</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="13">
+        <v>81</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D67" s="13">
+        <v>1</v>
+      </c>
+      <c r="E67" s="13" t="s">
+        <v>1531</v>
+      </c>
+      <c r="G67" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'COPIA DE RESOLUCION','CRS','I')</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="13">
+        <v>82</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D68" s="13">
+        <v>1</v>
+      </c>
+      <c r="E68" s="13" t="s">
+        <v>1533</v>
+      </c>
+      <c r="G68" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'COPIA DE OFICIO','CPO','I')</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="13">
+        <v>83</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D69" s="13">
+        <v>1</v>
+      </c>
+      <c r="E69" s="13" t="s">
+        <v>1535</v>
+      </c>
+      <c r="G69" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'CONSTANCIA DE SALIDA DEFINITIVA','CSD','I')</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="13">
+        <v>84</v>
+      </c>
+      <c r="B70" s="14" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D70" s="13">
+        <v>1</v>
+      </c>
+      <c r="E70" s="13" t="s">
+        <v>1537</v>
+      </c>
+      <c r="G70" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'CONSTANCIA DE RESIDENCIA','CDR','I')</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="13">
+        <v>85</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D71" s="13">
+        <v>1</v>
+      </c>
+      <c r="E71" s="13" t="s">
+        <v>1539</v>
+      </c>
+      <c r="G71" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'REINTEGRO TRAMITE PASAPORTE','REP','P')</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="13">
+        <v>86</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D72" s="13">
+        <v>1</v>
+      </c>
+      <c r="E72" s="13" t="s">
+        <v>1541</v>
+      </c>
+      <c r="G72" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'RENUNCIA A LA NACIONALIDAD PERUANA','RNA','T')</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="13">
+        <v>87</v>
+      </c>
+      <c r="B73" s="14" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D73" s="13">
+        <v>0</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>1543</v>
+      </c>
+      <c r="G73" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(0,'ACTUALIZACIÓN DE DATOS EN TÍTULOS DE NACIONALIDAD','ATN','T')</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="13">
+        <v>88</v>
+      </c>
+      <c r="B74" s="14" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D74" s="13">
+        <v>0</v>
+      </c>
+      <c r="E74" s="13" t="s">
+        <v>1545</v>
+      </c>
+      <c r="G74" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(0,'COPIA CERTIFICADA DE TITULOS DE NACIONALIDAD','CTN','T')</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="13">
+        <v>89</v>
+      </c>
+      <c r="B75" s="14" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D75" s="13">
+        <v>1</v>
+      </c>
+      <c r="E75" s="13" t="s">
+        <v>1547</v>
+      </c>
+      <c r="G75" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'PER.ESP.PER.FUER.D.PAÍS MÁS.D.183 DÍAS SIN PER.RES','PFP','I')</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="13">
+        <v>90</v>
+      </c>
+      <c r="B76" s="14" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D76" s="13">
+        <v>1</v>
+      </c>
+      <c r="E76" s="13" t="s">
+        <v>1549</v>
+      </c>
+      <c r="G76" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'Expedición de Pasaporte Electrónico','EPE','P')</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="13">
+        <v>91</v>
+      </c>
+      <c r="B77" s="14" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D77" s="13">
+        <v>1</v>
+      </c>
+      <c r="E77" s="13" t="s">
+        <v>1551</v>
+      </c>
+      <c r="G77" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'ANULACIÓN TRAMITE PASAPORTE ELECTRÓNICO','APE','P')</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="13">
+        <v>92</v>
+      </c>
+      <c r="B78" s="14" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D78" s="13">
+        <v>1</v>
+      </c>
+      <c r="E78" s="13" t="s">
+        <v>1553</v>
+      </c>
+      <c r="G78" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'Permiso Temporal de Permanencia - Venezolanos','PTV','I')</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="13">
+        <v>93</v>
+      </c>
+      <c r="B79" s="14" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C79" s="13" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D79" s="13">
+        <v>1</v>
+      </c>
+      <c r="E79" s="13" t="s">
+        <v>1555</v>
+      </c>
+      <c r="G79" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'Permiso Temporal de Permanencia - Padres','PTE','I')</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="13">
+        <v>94</v>
+      </c>
+      <c r="B80" s="14" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D80" s="13">
+        <v>1</v>
+      </c>
+      <c r="E80" s="13" t="s">
+        <v>1557</v>
+      </c>
+      <c r="G80" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'CANC. PERMANENCIA/RESIDENCIA X PTP','CPT','I')</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="13">
+        <v>95</v>
+      </c>
+      <c r="B81" s="14" t="s">
+        <v>1558</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D81" s="13">
+        <v>1</v>
+      </c>
+      <c r="E81" s="13" t="s">
+        <v>1559</v>
+      </c>
+      <c r="G81" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'DUPLICADO DE CARNE PTP','DPT','I')</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="13">
+        <v>96</v>
+      </c>
+      <c r="B82" s="14" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D82" s="13">
+        <v>1</v>
+      </c>
+      <c r="E82" s="13" t="s">
+        <v>1561</v>
+      </c>
+      <c r="G82" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'DUPLICADO DE TAM','DTA','I')</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="13">
+        <v>97</v>
+      </c>
+      <c r="B83" s="14" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C83" s="13" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D83" s="13">
+        <v>1</v>
+      </c>
+      <c r="E83" s="13" t="s">
+        <v>1563</v>
+      </c>
+      <c r="G83" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'TRASLADO DE SELLO DE INGRESO A DOC.DE VIAJE NUEVO','TSI','I')</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="13">
+        <v>98</v>
+      </c>
+      <c r="B84" s="14" t="s">
+        <v>1564</v>
+      </c>
+      <c r="C84" s="13" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D84" s="13">
+        <v>1</v>
+      </c>
+      <c r="E84" s="13" t="s">
+        <v>1565</v>
+      </c>
+      <c r="G84" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'DEVOLUCIÓN DE PAGO DE TASAS','DVT','D')</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="13">
+        <v>99</v>
+      </c>
+      <c r="B85" s="14" t="s">
+        <v>1566</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D85" s="13">
+        <v>1</v>
+      </c>
+      <c r="E85" s="13" t="s">
+        <v>1567</v>
+      </c>
+      <c r="G85" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'ACTUALIZACIÓN DE DATOS EXTRANJERO EN LINEA','ADE','I')</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="13">
+        <v>100</v>
+      </c>
+      <c r="B86" s="14" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D86" s="13">
+        <v>1</v>
+      </c>
+      <c r="E86" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="G86" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'SUSPENSIÓN DE PASAPORTES','SUP','P')</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="13">
+        <v>101</v>
+      </c>
+      <c r="B87" s="14" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C87" s="13" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D87" s="13">
+        <v>1</v>
+      </c>
+      <c r="E87" s="13" t="s">
+        <v>1570</v>
+      </c>
+      <c r="G87" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'PRORROGA VISA MRE','PMR','I')</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="13">
+        <v>102</v>
+      </c>
+      <c r="B88" s="14" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C88" s="13" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D88" s="13">
+        <v>1</v>
+      </c>
+      <c r="E88" s="13" t="s">
+        <v>1572</v>
+      </c>
+      <c r="G88" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'OFICIO MIGRATORIO PERSONALIZADO','OMP','U')</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="13">
+        <v>103</v>
+      </c>
+      <c r="B89" s="14" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C89" s="13" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D89" s="13">
+        <v>1</v>
+      </c>
+      <c r="E89" s="13" t="s">
+        <v>1574</v>
+      </c>
+      <c r="G89" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'SUBSANACION','SUB','I')</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="13">
+        <v>104</v>
+      </c>
+      <c r="B90" s="14" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C90" s="13" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D90" s="13">
+        <v>1</v>
+      </c>
+      <c r="E90" s="13" t="s">
+        <v>1576</v>
+      </c>
+      <c r="G90" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'ENTREGA DE CARNÉ DE EXTRANJERÍA','ECE','I')</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="13">
+        <v>105</v>
+      </c>
+      <c r="B91" s="14" t="s">
+        <v>1577</v>
+      </c>
+      <c r="C91" s="13" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D91" s="13">
+        <v>1</v>
+      </c>
+      <c r="E91" s="13" t="s">
+        <v>1578</v>
+      </c>
+      <c r="G91" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'ENTREGA DE CARNÉ DE PTP','ETP','I')</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="13">
+        <v>106</v>
+      </c>
+      <c r="B92" s="14" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C92" s="13" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D92" s="13">
+        <v>1</v>
+      </c>
+      <c r="E92" s="13" t="s">
+        <v>1579</v>
+      </c>
+      <c r="G92" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'ENTREGA DE PASAPORTE','EPA','I')</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="13">
+        <v>108</v>
+      </c>
+      <c r="B93" s="14" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C93" s="13" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D93" s="13">
+        <v>1</v>
+      </c>
+      <c r="E93" s="13" t="s">
+        <v>1581</v>
+      </c>
+      <c r="G93" t="str">
+        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
+        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'VULNERABLE','VUL','U')</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9BE2539-710F-4EC7-912D-5DEAC883A6B6}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B4"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D30:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8663,7 +11075,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5DE957F-856A-4722-A65D-6E8DE3DA37BD}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -8731,7 +11143,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{783D736A-80AE-41C7-9334-AFDB0DE928D3}">
   <dimension ref="A1:G14"/>
   <sheetViews>
@@ -8816,7 +11228,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40BCBD54-3E3B-4BB4-99BB-A3ACECBEC12B}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -8888,7 +11300,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D6D5F7E-3A85-4D12-A340-5436CC68D2B1}">
   <dimension ref="A1:D252"/>
   <sheetViews>
@@ -12463,7 +14875,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE7676CA-2E69-4723-830C-5D46D88EC8D8}">
   <dimension ref="A1:I252"/>
   <sheetViews>
@@ -16131,13 +18543,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94681728-243F-40C6-BB26-5B097AA74350}">
   <dimension ref="A1:G252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
+      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -19735,12 +22147,892 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D78572A8-27D3-4DB6-84B5-64E890DD8E28}">
+  <dimension ref="B1:L35"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="32.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="1"/>
+    <col min="10" max="10" width="30.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="1"/>
+    <col min="12" max="12" width="31.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="1"/>
+    <col min="14" max="14" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+    </row>
+    <row r="3" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="11" t="s">
+        <v>1902</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+    </row>
+    <row r="4" spans="2:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>1903</v>
+      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+    </row>
+    <row r="5" spans="2:12" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B5" s="42" t="s">
+        <v>1904</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+    </row>
+    <row r="6" spans="2:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B6" s="43" t="s">
+        <v>1905</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+    </row>
+    <row r="7" spans="2:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B7" s="43" t="s">
+        <v>1906</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+    </row>
+    <row r="8" spans="2:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B8" s="44" t="s">
+        <v>1907</v>
+      </c>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+    </row>
+    <row r="9" spans="2:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B9" s="44" t="s">
+        <v>1908</v>
+      </c>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+    </row>
+    <row r="10" spans="2:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B10" s="44" t="s">
+        <v>1909</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+    </row>
+    <row r="11" spans="2:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B11" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+    </row>
+    <row r="12" spans="2:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B12" s="44" t="s">
+        <v>1910</v>
+      </c>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+    </row>
+    <row r="13" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>1912</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+    </row>
+    <row r="14" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="45" t="s">
+        <v>1911</v>
+      </c>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+    </row>
+    <row r="15" spans="2:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+    </row>
+    <row r="16" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+    </row>
+    <row r="17" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+    </row>
+    <row r="18" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+    </row>
+    <row r="19" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+    </row>
+    <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+    </row>
+    <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+    </row>
+    <row r="22" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+    </row>
+    <row r="23" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+    </row>
+    <row r="24" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+    </row>
+    <row r="25" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+    </row>
+    <row r="26" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+    </row>
+    <row r="27" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+    </row>
+    <row r="28" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+    </row>
+    <row r="29" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+    </row>
+    <row r="30" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+    </row>
+    <row r="31" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+    </row>
+    <row r="32" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+    </row>
+    <row r="33" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+    </row>
+    <row r="34" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+    </row>
+    <row r="35" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B479CC4-D821-4025-BFB5-61F3C214C9E3}">
+  <dimension ref="A1:M38"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="41.85546875" style="12" customWidth="1"/>
+    <col min="2" max="4" width="4.85546875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="30.5703125" style="12" customWidth="1"/>
+    <col min="7" max="7" width="31.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="12" customWidth="1"/>
+    <col min="9" max="9" width="32.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" style="12" customWidth="1"/>
+    <col min="11" max="11" width="42.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="12"/>
+    <col min="13" max="13" width="44" style="12" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="12"/>
+    <col min="15" max="15" width="31.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" style="12"/>
+    <col min="17" max="17" width="21.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="11.42578125" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="38" t="s">
+        <v>1885</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+    </row>
+    <row r="2" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="36" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>1913</v>
+      </c>
+      <c r="C3" s="49" t="s">
+        <v>1914</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>1915</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>1886</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="37"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="33" t="s">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="37"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="33" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="37"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="33" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="37"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="33" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="37"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="33" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="37"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="39" t="s">
+        <v>1894</v>
+      </c>
+      <c r="G9" s="32" t="s">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="37"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="32" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="37"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="32" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="37"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="32" t="s">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="37"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="32" t="s">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="37"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="32" t="s">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A15" s="37"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="34" t="s">
+        <v>1887</v>
+      </c>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+    </row>
+    <row r="20" spans="11:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="K20" s="52" t="s">
+        <v>1950</v>
+      </c>
+      <c r="L20" s="52" t="s">
+        <v>1951</v>
+      </c>
+      <c r="M20" s="52"/>
+    </row>
+    <row r="21" spans="11:13" x14ac:dyDescent="0.2">
+      <c r="K21" s="53" t="s">
+        <v>1916</v>
+      </c>
+      <c r="L21" s="53" t="s">
+        <v>1917</v>
+      </c>
+      <c r="M21" s="53"/>
+    </row>
+    <row r="22" spans="11:13" x14ac:dyDescent="0.2">
+      <c r="K22" s="53" t="s">
+        <v>1918</v>
+      </c>
+      <c r="L22" s="53" t="s">
+        <v>1919</v>
+      </c>
+      <c r="M22" s="53"/>
+    </row>
+    <row r="23" spans="11:13" x14ac:dyDescent="0.2">
+      <c r="K23" s="53" t="s">
+        <v>1920</v>
+      </c>
+      <c r="L23" s="53" t="s">
+        <v>1921</v>
+      </c>
+      <c r="M23" s="53"/>
+    </row>
+    <row r="24" spans="11:13" x14ac:dyDescent="0.2">
+      <c r="K24" s="53" t="s">
+        <v>1922</v>
+      </c>
+      <c r="L24" s="53" t="s">
+        <v>1923</v>
+      </c>
+      <c r="M24" s="53"/>
+    </row>
+    <row r="25" spans="11:13" x14ac:dyDescent="0.2">
+      <c r="K25" s="53" t="s">
+        <v>1924</v>
+      </c>
+      <c r="L25" s="53" t="s">
+        <v>1925</v>
+      </c>
+      <c r="M25" s="53"/>
+    </row>
+    <row r="26" spans="11:13" x14ac:dyDescent="0.2">
+      <c r="K26" s="53" t="s">
+        <v>1926</v>
+      </c>
+      <c r="L26" s="53" t="s">
+        <v>1927</v>
+      </c>
+      <c r="M26" s="53"/>
+    </row>
+    <row r="27" spans="11:13" x14ac:dyDescent="0.2">
+      <c r="K27" s="53" t="s">
+        <v>1928</v>
+      </c>
+      <c r="L27" s="53" t="s">
+        <v>1929</v>
+      </c>
+      <c r="M27" s="53"/>
+    </row>
+    <row r="28" spans="11:13" x14ac:dyDescent="0.2">
+      <c r="K28" s="53" t="s">
+        <v>1930</v>
+      </c>
+      <c r="L28" s="53" t="s">
+        <v>1931</v>
+      </c>
+      <c r="M28" s="53"/>
+    </row>
+    <row r="29" spans="11:13" x14ac:dyDescent="0.2">
+      <c r="K29" s="53" t="s">
+        <v>1932</v>
+      </c>
+      <c r="L29" s="53" t="s">
+        <v>1933</v>
+      </c>
+      <c r="M29" s="53"/>
+    </row>
+    <row r="30" spans="11:13" x14ac:dyDescent="0.2">
+      <c r="K30" s="53" t="s">
+        <v>1934</v>
+      </c>
+      <c r="L30" s="53" t="s">
+        <v>1935</v>
+      </c>
+      <c r="M30" s="53"/>
+    </row>
+    <row r="31" spans="11:13" x14ac:dyDescent="0.2">
+      <c r="K31" s="53" t="s">
+        <v>1936</v>
+      </c>
+      <c r="L31" s="53" t="s">
+        <v>1927</v>
+      </c>
+      <c r="M31" s="53"/>
+    </row>
+    <row r="32" spans="11:13" x14ac:dyDescent="0.2">
+      <c r="K32" s="53" t="s">
+        <v>1937</v>
+      </c>
+      <c r="L32" s="53" t="s">
+        <v>1931</v>
+      </c>
+      <c r="M32" s="53"/>
+    </row>
+    <row r="33" spans="11:13" x14ac:dyDescent="0.2">
+      <c r="K33" s="53" t="s">
+        <v>1938</v>
+      </c>
+      <c r="L33" s="53" t="s">
+        <v>1939</v>
+      </c>
+      <c r="M33" s="53"/>
+    </row>
+    <row r="34" spans="11:13" x14ac:dyDescent="0.2">
+      <c r="K34" s="53" t="s">
+        <v>1940</v>
+      </c>
+      <c r="L34" s="53" t="s">
+        <v>1941</v>
+      </c>
+      <c r="M34" s="53"/>
+    </row>
+    <row r="35" spans="11:13" x14ac:dyDescent="0.2">
+      <c r="K35" s="53" t="s">
+        <v>1942</v>
+      </c>
+      <c r="L35" s="53" t="s">
+        <v>1943</v>
+      </c>
+      <c r="M35" s="53"/>
+    </row>
+    <row r="36" spans="11:13" x14ac:dyDescent="0.2">
+      <c r="K36" s="53" t="s">
+        <v>1944</v>
+      </c>
+      <c r="L36" s="53" t="s">
+        <v>1945</v>
+      </c>
+      <c r="M36" s="53"/>
+    </row>
+    <row r="37" spans="11:13" x14ac:dyDescent="0.2">
+      <c r="K37" s="53" t="s">
+        <v>1946</v>
+      </c>
+      <c r="L37" s="53" t="s">
+        <v>1947</v>
+      </c>
+      <c r="M37" s="53"/>
+    </row>
+    <row r="38" spans="11:13" x14ac:dyDescent="0.2">
+      <c r="K38" s="53" t="s">
+        <v>1948</v>
+      </c>
+      <c r="L38" s="53" t="s">
+        <v>1949</v>
+      </c>
+      <c r="M38" s="53"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="E3:E14"/>
+    <mergeCell ref="A3:A15"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="F9:F14"/>
+    <mergeCell ref="B3:B15"/>
+    <mergeCell ref="C3:C15"/>
+    <mergeCell ref="D3:D15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A950E948-BC65-4569-B7CD-1FCEA0BF2B23}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19891,7 +23183,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69D42FFF-55EE-41D3-A74E-FD3D106600ED}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -19993,7 +23285,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6347615C-5CA3-4404-8D42-2B68539974B2}">
   <dimension ref="A1:E66"/>
   <sheetViews>
@@ -21003,12 +24295,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54D3180A-DA38-4D8F-AF68-D54F9F88CDC5}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="G100" sqref="G100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21179,7 +24471,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D11A1DE-96C6-4821-AF08-81A12BEF9AF8}">
   <dimension ref="A1:G484"/>
   <sheetViews>
@@ -31222,7 +34514,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ACE8D06-6897-4FB8-9659-2B145A9C62DC}">
   <dimension ref="A1:F230"/>
   <sheetViews>
@@ -35361,2025 +38653,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F8FE26D-28F6-4742-A77C-1D1E20031D32}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>1402</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>1403</v>
-      </c>
-      <c r="C2" s="15">
-        <v>1</v>
-      </c>
-      <c r="E2" t="str">
-        <f>"INSERT INTO SidtefimTipoSolicitud VALUES('"&amp;Tabla6[[#This Row],[sIdTipoSolicitud]]&amp;"',"&amp;Tabla6[[#This Row],[bActivo]]&amp;",'"&amp;Tabla6[[#This Row],[sDescripcion]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoSolicitud VALUES('NAC',1,'Nacionalización')</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{166F7E67-9309-40BB-B701-C86C4350EBBF}">
-  <dimension ref="A1:G93"/>
-  <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J88" sqref="J88"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.140625" customWidth="1"/>
-    <col min="2" max="2" width="57.42578125" style="16" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
-        <v>1</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>929</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>1404</v>
-      </c>
-      <c r="D2" s="13">
-        <v>1</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="G2" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'&lt;NO DEFINIDO&gt;','NNN','U')</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
-        <v>2</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>1405</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D3" s="13">
-        <v>1</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>1406</v>
-      </c>
-      <c r="G3" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'EXPEDICION DE PASAPORTE','EXP','P')</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
-        <v>3</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>1407</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D4" s="13">
-        <v>1</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>1408</v>
-      </c>
-      <c r="G4" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'REVALIDACION DE PASAPORTE','RVP','P')</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
-        <v>4</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>1409</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D5" s="13">
-        <v>1</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>1410</v>
-      </c>
-      <c r="G5" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'ANULACION DE PASAPORTE','ANP','P')</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
-        <v>5</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>1411</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D6" s="13">
-        <v>1</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>1412</v>
-      </c>
-      <c r="G6" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'PASAPORTE COLECTIVO','PCO','P')</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
-        <v>6</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>1413</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" s="13">
-        <v>1</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>1414</v>
-      </c>
-      <c r="G7" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'ANULACION TRAMITE PASAPORTE','ATP','P')</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
-        <v>7</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>1415</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>1416</v>
-      </c>
-      <c r="D8" s="13">
-        <v>1</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>1417</v>
-      </c>
-      <c r="G8" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'ANULACION DE MOVIMIENTO MIGRATORIO','AMM','M')</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
-        <v>8</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>1418</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>1416</v>
-      </c>
-      <c r="D9" s="13">
-        <v>1</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>1419</v>
-      </c>
-      <c r="G9" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'RECTIFICACION DE  MOVIMIENTO MIGRATORIO','RMM','M')</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
-        <v>9</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>1420</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" s="13">
-        <v>1</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>326</v>
-      </c>
-      <c r="G10" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'TRAMITE ASOCIACION','APA','P')</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
-        <v>10</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>1421</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D11" s="13">
-        <v>1</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>1422</v>
-      </c>
-      <c r="G11" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'TRAMITE DESASOCIACION','DPA','P')</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
-        <v>11</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>1423</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D12" s="13">
-        <v>0</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>1424</v>
-      </c>
-      <c r="G12" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(0,'RECHAZO PASAPORTE','RPA','P')</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>1425</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>1404</v>
-      </c>
-      <c r="D13" s="13">
-        <v>0</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>1426</v>
-      </c>
-      <c r="G13" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(0,'RETENCION DE EXPEDIENTE','RET','U')</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
-        <v>13</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>1427</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D14" s="13">
-        <v>0</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>1428</v>
-      </c>
-      <c r="G14" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(0,'RECHAZO PASAPORTE CONTROL','RPC','P')</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="13">
-        <v>14</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>1429</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D15" s="13">
-        <v>1</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>1430</v>
-      </c>
-      <c r="G15" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'CANCELAR IMPRESION DE PASAPORTE','CIP','P')</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
-        <v>15</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>1431</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>1404</v>
-      </c>
-      <c r="D16" s="13">
-        <v>1</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>1432</v>
-      </c>
-      <c r="G16" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'OFICIO MOVIMIENTO MIGRATORIO','OMM','U')</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="13">
-        <v>16</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>1433</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>1404</v>
-      </c>
-      <c r="D17" s="13">
-        <v>1</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>1434</v>
-      </c>
-      <c r="G17" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'INFORME MOVIMIENTO MIGRATORIO','IMM','U')</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="13">
-        <v>17</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>1435</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>1404</v>
-      </c>
-      <c r="D18" s="13">
-        <v>1</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>1436</v>
-      </c>
-      <c r="G18" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'CERTIFICADO MOVIMIENTO MIGRATORIO','CMM','U')</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="13">
-        <v>18</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>1437</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>1404</v>
-      </c>
-      <c r="D19" s="13">
-        <v>1</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>1438</v>
-      </c>
-      <c r="G19" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'CERTIFICADO DE PASAPORTE','CDP','U')</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="13">
-        <v>19</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>1439</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>1404</v>
-      </c>
-      <c r="D20" s="13">
-        <v>1</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>1440</v>
-      </c>
-      <c r="G20" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'CERTIFICADO INSCRIPC. REGISTRO CENTRAL EXTRANJERÍA','CRE','U')</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="13">
-        <v>20</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>1441</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>1404</v>
-      </c>
-      <c r="D21" s="13">
-        <v>1</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>1442</v>
-      </c>
-      <c r="G21" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'COPIAS CERTIFICADAS DOCUMENTOS ORIG. CONTEN. EXPE.','LCE','U')</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="13">
-        <v>21</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>1443</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>1404</v>
-      </c>
-      <c r="D22" s="13">
-        <v>1</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>1444</v>
-      </c>
-      <c r="G22" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'FACILIDADES PERICIAS POLICIALES','FPP','U')</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="13">
-        <v>22</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>1445</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>1404</v>
-      </c>
-      <c r="D23" s="13">
-        <v>1</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>1446</v>
-      </c>
-      <c r="G23" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'OFICIOS CERTIFICANDO RESIDENCIA','OCR','U')</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="13">
-        <v>23</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>1447</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>1404</v>
-      </c>
-      <c r="D24" s="13">
-        <v>1</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>1448</v>
-      </c>
-      <c r="G24" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'COPIA AUTENTICADA DE DOCUMENTOS SUSTENTATORIOS DE','DSP','U')</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="13">
-        <v>24</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>1449</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>1404</v>
-      </c>
-      <c r="D25" s="13">
-        <v>1</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>1450</v>
-      </c>
-      <c r="G25" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'INFORME DE TITULARIDAD DE PASAPORTE','ITP','U')</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="13">
-        <v>25</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>1404</v>
-      </c>
-      <c r="D26" s="13">
-        <v>1</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>1452</v>
-      </c>
-      <c r="G26" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'REMISION DE CUADROS NUMÉRICOS EXP Y REV DE PPTE','CNP','U')</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="13">
-        <v>26</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>1453</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>1404</v>
-      </c>
-      <c r="D27" s="13">
-        <v>1</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>1454</v>
-      </c>
-      <c r="G27" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'REMISON DE SALVOCONDUCTOS CONSULARES PCM Y CONSULA','RSC','U')</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="13">
-        <v>27</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>1455</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>1404</v>
-      </c>
-      <c r="D28" s="13">
-        <v>1</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>1456</v>
-      </c>
-      <c r="G28" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'VERIFICACION DE AUTENTICIDAD DE PPTE','VAP','U')</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="13">
-        <v>28</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>1457</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>1404</v>
-      </c>
-      <c r="D29" s="13">
-        <v>1</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>1458</v>
-      </c>
-      <c r="G29" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'IMPRESIONES DACTILARES, GENERALES DE LEY','GDL','U')</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="13">
-        <v>29</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>1459</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>1404</v>
-      </c>
-      <c r="D30" s="13">
-        <v>1</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>1460</v>
-      </c>
-      <c r="G30" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'OTROS','OTR','U')</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="13">
-        <v>30</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>1461</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>1404</v>
-      </c>
-      <c r="D31" s="13">
-        <v>1</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>1462</v>
-      </c>
-      <c r="G31" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'VERIFICACION DE DATOS','VRF','U')</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="13">
-        <v>31</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>1463</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D32" s="13">
-        <v>1</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>1464</v>
-      </c>
-      <c r="G32" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'CAMBIO DE CONSULADO - VISA','COV','I')</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="13">
-        <v>33</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>1465</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D33" s="13">
-        <v>1</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>1466</v>
-      </c>
-      <c r="G33" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'EXONERACIÓN PAGO - PRORROGA RE','EXR','I')</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="13">
-        <v>34</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>1467</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D34" s="13">
-        <v>1</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>1468</v>
-      </c>
-      <c r="G34" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'PAGO TASA ANUAL EXTRANJERÍA','PAG','I')</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="13">
-        <v>36</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>1111</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D35" s="13">
-        <v>1</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>1469</v>
-      </c>
-      <c r="G35" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'MODIFICACION DATOS RCE','MRC','I')</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="13">
-        <v>39</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>1470</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D36" s="13">
-        <v>1</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>1471</v>
-      </c>
-      <c r="G36" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'PERMISO DE VIAJE','PEV','I')</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="13">
-        <v>40</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>1472</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D37" s="13">
-        <v>1</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>984</v>
-      </c>
-      <c r="G37" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'SALIDAS CONCLUIDAS TEMPORALES','SAL','I')</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="13">
-        <v>43</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>1473</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D38" s="13">
-        <v>1</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>1474</v>
-      </c>
-      <c r="G38" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'CERTIFICADO DE VISA','CER','I')</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="13">
-        <v>44</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>1475</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D39" s="13">
-        <v>1</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>1476</v>
-      </c>
-      <c r="G39" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'ORDEN DE SALIDA Y REGISTRO EXPULSADOS','OSR','I')</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="13">
-        <v>45</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>1477</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D40" s="13">
-        <v>1</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>1478</v>
-      </c>
-      <c r="G40" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'CANC. PERMANENCIA/RESIDENCIA X OFICIO','CPR','I')</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="13">
-        <v>54</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>1479</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D41" s="13">
-        <v>0</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>1004</v>
-      </c>
-      <c r="G41" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(0,'Solicitud de Visa MRE','SOM','I')</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="13">
-        <v>55</v>
-      </c>
-      <c r="B42" s="14" t="s">
-        <v>1480</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D42" s="13">
-        <v>1</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>1481</v>
-      </c>
-      <c r="G42" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'SOLICITUD DE VISA','SOL','I')</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="13">
-        <v>56</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>1482</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D43" s="13">
-        <v>1</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>1483</v>
-      </c>
-      <c r="G43" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'PRORROGA DE PERMANENCIA','PRP','I')</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="13">
-        <v>57</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>1484</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D44" s="13">
-        <v>1</v>
-      </c>
-      <c r="E44" s="13" t="s">
-        <v>1485</v>
-      </c>
-      <c r="G44" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'PRORROGA DE RESIDENCIA','PRR','I')</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="13">
-        <v>58</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>1486</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D45" s="13">
-        <v>1</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>1487</v>
-      </c>
-      <c r="G45" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'CAMBIO DE CALIDAD MIGRATORIA','CCM','I')</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="13">
-        <v>59</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>1488</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D46" s="13">
-        <v>1</v>
-      </c>
-      <c r="E46" s="13" t="s">
-        <v>1489</v>
-      </c>
-      <c r="G46" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'CAMBIO DE CLASE DE VISA','CCV','I')</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="13">
-        <v>60</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>1490</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D47" s="13">
-        <v>1</v>
-      </c>
-      <c r="E47" s="13" t="s">
-        <v>1491</v>
-      </c>
-      <c r="G47" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'PERMISO PARA TRABAJAR','PET','I')</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="13">
-        <v>61</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>1492</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D48" s="13">
-        <v>1</v>
-      </c>
-      <c r="E48" s="13" t="s">
-        <v>1493</v>
-      </c>
-      <c r="G48" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'PERMISO ESP. FIRMAR CONTRATOS','PEF','I')</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="13">
-        <v>62</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>1494</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D49" s="13">
-        <v>1</v>
-      </c>
-      <c r="E49" s="13" t="s">
-        <v>1495</v>
-      </c>
-      <c r="G49" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'INSCR.REG.CENTRAL EXTRANJERÍA','INS','I')</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="13">
-        <v>64</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>1496</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D50" s="13">
-        <v>1</v>
-      </c>
-      <c r="E50" s="13" t="s">
-        <v>1497</v>
-      </c>
-      <c r="G50" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'DUPLICADO DE CE','DUP','I')</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="13">
-        <v>65</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>1498</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D51" s="13">
-        <v>1</v>
-      </c>
-      <c r="E51" s="13" t="s">
-        <v>1499</v>
-      </c>
-      <c r="G51" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'EXONERACIÓN PAGO TASA ANUAL','EXT','I')</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="13">
-        <v>66</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>1500</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D52" s="13">
-        <v>1</v>
-      </c>
-      <c r="E52" s="13" t="s">
-        <v>592</v>
-      </c>
-      <c r="G52" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'CANCE.RESIDENCIA Y SALIDA DEF.','CAN','I')</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="13">
-        <v>67</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>1501</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D53" s="13">
-        <v>1</v>
-      </c>
-      <c r="E53" s="13" t="s">
-        <v>1502</v>
-      </c>
-      <c r="G53" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'TRASLADO DE SELLOS PARA RESIDENTES E INMIGRANTES','TRA','I')</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="13">
-        <v>68</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>1503</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D54" s="13">
-        <v>1</v>
-      </c>
-      <c r="E54" s="13" t="s">
-        <v>1504</v>
-      </c>
-      <c r="G54" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'CANCELACIÓN TRÁMITE','CTR','I')</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="13">
-        <v>69</v>
-      </c>
-      <c r="B55" s="14" t="s">
-        <v>1505</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>1506</v>
-      </c>
-      <c r="D55" s="13">
-        <v>1</v>
-      </c>
-      <c r="E55" s="13" t="s">
-        <v>1507</v>
-      </c>
-      <c r="G55" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'INS HIJOS DE PERUANOS NAC. EN EXT. MENORES DE EDAD','IME','T')</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="13">
-        <v>70</v>
-      </c>
-      <c r="B56" s="14" t="s">
-        <v>1508</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D56" s="13">
-        <v>1</v>
-      </c>
-      <c r="E56" s="13" t="s">
-        <v>1509</v>
-      </c>
-      <c r="G56" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'COPIA CERTIFICADA DE CARNE DE EXTRANJERIA','CCE','I')</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="13">
-        <v>71</v>
-      </c>
-      <c r="B57" s="14" t="s">
-        <v>1510</v>
-      </c>
-      <c r="C57" s="13" t="s">
-        <v>1506</v>
-      </c>
-      <c r="D57" s="13">
-        <v>1</v>
-      </c>
-      <c r="E57" s="13" t="s">
-        <v>1511</v>
-      </c>
-      <c r="G57" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'INS HIJOS DE PERUANOS NAC. EN EXT. MAYORES DE EDAD','IMA','T')</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="13">
-        <v>72</v>
-      </c>
-      <c r="B58" s="14" t="s">
-        <v>1512</v>
-      </c>
-      <c r="C58" s="13" t="s">
-        <v>1506</v>
-      </c>
-      <c r="D58" s="13">
-        <v>1</v>
-      </c>
-      <c r="E58" s="13" t="s">
-        <v>1513</v>
-      </c>
-      <c r="G58" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'INS HIJOS DE EXT. NAC.EN EXT.RES PERÚ DESDE 5 AÑOS','IER','T')</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="13">
-        <v>73</v>
-      </c>
-      <c r="B59" s="14" t="s">
-        <v>1514</v>
-      </c>
-      <c r="C59" s="13" t="s">
-        <v>1506</v>
-      </c>
-      <c r="D59" s="13">
-        <v>1</v>
-      </c>
-      <c r="E59" s="13" t="s">
-        <v>1515</v>
-      </c>
-      <c r="G59" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'INS PERUANO POR MATRIMONIO','IPM','T')</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="13">
-        <v>74</v>
-      </c>
-      <c r="B60" s="14" t="s">
-        <v>1516</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>1506</v>
-      </c>
-      <c r="D60" s="13">
-        <v>1</v>
-      </c>
-      <c r="E60" s="13" t="s">
-        <v>1517</v>
-      </c>
-      <c r="G60" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'COPIA CERTIFICADA DE REGISTRO DE INSCRIPCIÓN','CCT','T')</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="13">
-        <v>75</v>
-      </c>
-      <c r="B61" s="14" t="s">
-        <v>1518</v>
-      </c>
-      <c r="C61" s="13" t="s">
-        <v>1506</v>
-      </c>
-      <c r="D61" s="13">
-        <v>1</v>
-      </c>
-      <c r="E61" s="13" t="s">
-        <v>1519</v>
-      </c>
-      <c r="G61" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'DUPLICADO DE REGISTRO DE INSCRIPCIÓN','DRI','T')</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="13">
-        <v>76</v>
-      </c>
-      <c r="B62" s="14" t="s">
-        <v>1520</v>
-      </c>
-      <c r="C62" s="13" t="s">
-        <v>1506</v>
-      </c>
-      <c r="D62" s="13">
-        <v>1</v>
-      </c>
-      <c r="E62" s="13" t="s">
-        <v>1521</v>
-      </c>
-      <c r="G62" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'OBTENCIÓN NACIONALIDAD PERUANA POR NATURALIZACIÓN','ONN','T')</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="13">
-        <v>77</v>
-      </c>
-      <c r="B63" s="14" t="s">
-        <v>1522</v>
-      </c>
-      <c r="C63" s="13" t="s">
-        <v>1506</v>
-      </c>
-      <c r="D63" s="13">
-        <v>1</v>
-      </c>
-      <c r="E63" s="13" t="s">
-        <v>1523</v>
-      </c>
-      <c r="G63" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'ACTUALIZACIÓN DE DATOS EN REGISTROS DE INSCRIPCIÓN','ADR','T')</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="13">
-        <v>78</v>
-      </c>
-      <c r="B64" s="14" t="s">
-        <v>1524</v>
-      </c>
-      <c r="C64" s="13" t="s">
-        <v>1506</v>
-      </c>
-      <c r="D64" s="13">
-        <v>1</v>
-      </c>
-      <c r="E64" s="13" t="s">
-        <v>1525</v>
-      </c>
-      <c r="G64" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'OBTENCIÓN DE LA DOBLE NACIONALIDAD','ODN','T')</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="13">
-        <v>79</v>
-      </c>
-      <c r="B65" s="14" t="s">
-        <v>1526</v>
-      </c>
-      <c r="C65" s="13" t="s">
-        <v>1506</v>
-      </c>
-      <c r="D65" s="13">
-        <v>1</v>
-      </c>
-      <c r="E65" s="13" t="s">
-        <v>1527</v>
-      </c>
-      <c r="G65" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'RECUPERACIÓN DE LA NACIONALIDAD PERUANA','RNP','T')</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="13">
-        <v>80</v>
-      </c>
-      <c r="B66" s="14" t="s">
-        <v>1528</v>
-      </c>
-      <c r="C66" s="13" t="s">
-        <v>1506</v>
-      </c>
-      <c r="D66" s="13">
-        <v>0</v>
-      </c>
-      <c r="E66" s="13" t="s">
-        <v>1529</v>
-      </c>
-      <c r="G66" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(0,'DUPLICADO DE TÍTULO DE NACIONALIDAD','DTN','T')</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="13">
-        <v>81</v>
-      </c>
-      <c r="B67" s="14" t="s">
-        <v>1530</v>
-      </c>
-      <c r="C67" s="13" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D67" s="13">
-        <v>1</v>
-      </c>
-      <c r="E67" s="13" t="s">
-        <v>1531</v>
-      </c>
-      <c r="G67" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'COPIA DE RESOLUCION','CRS','I')</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="13">
-        <v>82</v>
-      </c>
-      <c r="B68" s="14" t="s">
-        <v>1532</v>
-      </c>
-      <c r="C68" s="13" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D68" s="13">
-        <v>1</v>
-      </c>
-      <c r="E68" s="13" t="s">
-        <v>1533</v>
-      </c>
-      <c r="G68" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'COPIA DE OFICIO','CPO','I')</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="13">
-        <v>83</v>
-      </c>
-      <c r="B69" s="14" t="s">
-        <v>1534</v>
-      </c>
-      <c r="C69" s="13" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D69" s="13">
-        <v>1</v>
-      </c>
-      <c r="E69" s="13" t="s">
-        <v>1535</v>
-      </c>
-      <c r="G69" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'CONSTANCIA DE SALIDA DEFINITIVA','CSD','I')</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="13">
-        <v>84</v>
-      </c>
-      <c r="B70" s="14" t="s">
-        <v>1536</v>
-      </c>
-      <c r="C70" s="13" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D70" s="13">
-        <v>1</v>
-      </c>
-      <c r="E70" s="13" t="s">
-        <v>1537</v>
-      </c>
-      <c r="G70" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'CONSTANCIA DE RESIDENCIA','CDR','I')</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="13">
-        <v>85</v>
-      </c>
-      <c r="B71" s="14" t="s">
-        <v>1538</v>
-      </c>
-      <c r="C71" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D71" s="13">
-        <v>1</v>
-      </c>
-      <c r="E71" s="13" t="s">
-        <v>1539</v>
-      </c>
-      <c r="G71" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'REINTEGRO TRAMITE PASAPORTE','REP','P')</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="13">
-        <v>86</v>
-      </c>
-      <c r="B72" s="14" t="s">
-        <v>1540</v>
-      </c>
-      <c r="C72" s="13" t="s">
-        <v>1506</v>
-      </c>
-      <c r="D72" s="13">
-        <v>1</v>
-      </c>
-      <c r="E72" s="13" t="s">
-        <v>1541</v>
-      </c>
-      <c r="G72" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'RENUNCIA A LA NACIONALIDAD PERUANA','RNA','T')</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="13">
-        <v>87</v>
-      </c>
-      <c r="B73" s="14" t="s">
-        <v>1542</v>
-      </c>
-      <c r="C73" s="13" t="s">
-        <v>1506</v>
-      </c>
-      <c r="D73" s="13">
-        <v>0</v>
-      </c>
-      <c r="E73" s="13" t="s">
-        <v>1543</v>
-      </c>
-      <c r="G73" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(0,'ACTUALIZACIÓN DE DATOS EN TÍTULOS DE NACIONALIDAD','ATN','T')</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="13">
-        <v>88</v>
-      </c>
-      <c r="B74" s="14" t="s">
-        <v>1544</v>
-      </c>
-      <c r="C74" s="13" t="s">
-        <v>1506</v>
-      </c>
-      <c r="D74" s="13">
-        <v>0</v>
-      </c>
-      <c r="E74" s="13" t="s">
-        <v>1545</v>
-      </c>
-      <c r="G74" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(0,'COPIA CERTIFICADA DE TITULOS DE NACIONALIDAD','CTN','T')</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="13">
-        <v>89</v>
-      </c>
-      <c r="B75" s="14" t="s">
-        <v>1546</v>
-      </c>
-      <c r="C75" s="13" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D75" s="13">
-        <v>1</v>
-      </c>
-      <c r="E75" s="13" t="s">
-        <v>1547</v>
-      </c>
-      <c r="G75" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'PER.ESP.PER.FUER.D.PAÍS MÁS.D.183 DÍAS SIN PER.RES','PFP','I')</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="13">
-        <v>90</v>
-      </c>
-      <c r="B76" s="14" t="s">
-        <v>1548</v>
-      </c>
-      <c r="C76" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D76" s="13">
-        <v>1</v>
-      </c>
-      <c r="E76" s="13" t="s">
-        <v>1549</v>
-      </c>
-      <c r="G76" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'Expedición de Pasaporte Electrónico','EPE','P')</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="13">
-        <v>91</v>
-      </c>
-      <c r="B77" s="14" t="s">
-        <v>1550</v>
-      </c>
-      <c r="C77" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D77" s="13">
-        <v>1</v>
-      </c>
-      <c r="E77" s="13" t="s">
-        <v>1551</v>
-      </c>
-      <c r="G77" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'ANULACIÓN TRAMITE PASAPORTE ELECTRÓNICO','APE','P')</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="13">
-        <v>92</v>
-      </c>
-      <c r="B78" s="14" t="s">
-        <v>1552</v>
-      </c>
-      <c r="C78" s="13" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D78" s="13">
-        <v>1</v>
-      </c>
-      <c r="E78" s="13" t="s">
-        <v>1553</v>
-      </c>
-      <c r="G78" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'Permiso Temporal de Permanencia - Venezolanos','PTV','I')</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="13">
-        <v>93</v>
-      </c>
-      <c r="B79" s="14" t="s">
-        <v>1554</v>
-      </c>
-      <c r="C79" s="13" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D79" s="13">
-        <v>1</v>
-      </c>
-      <c r="E79" s="13" t="s">
-        <v>1555</v>
-      </c>
-      <c r="G79" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'Permiso Temporal de Permanencia - Padres','PTE','I')</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="13">
-        <v>94</v>
-      </c>
-      <c r="B80" s="14" t="s">
-        <v>1556</v>
-      </c>
-      <c r="C80" s="13" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D80" s="13">
-        <v>1</v>
-      </c>
-      <c r="E80" s="13" t="s">
-        <v>1557</v>
-      </c>
-      <c r="G80" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'CANC. PERMANENCIA/RESIDENCIA X PTP','CPT','I')</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="13">
-        <v>95</v>
-      </c>
-      <c r="B81" s="14" t="s">
-        <v>1558</v>
-      </c>
-      <c r="C81" s="13" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D81" s="13">
-        <v>1</v>
-      </c>
-      <c r="E81" s="13" t="s">
-        <v>1559</v>
-      </c>
-      <c r="G81" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'DUPLICADO DE CARNE PTP','DPT','I')</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="13">
-        <v>96</v>
-      </c>
-      <c r="B82" s="14" t="s">
-        <v>1560</v>
-      </c>
-      <c r="C82" s="13" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D82" s="13">
-        <v>1</v>
-      </c>
-      <c r="E82" s="13" t="s">
-        <v>1561</v>
-      </c>
-      <c r="G82" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'DUPLICADO DE TAM','DTA','I')</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="13">
-        <v>97</v>
-      </c>
-      <c r="B83" s="14" t="s">
-        <v>1562</v>
-      </c>
-      <c r="C83" s="13" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D83" s="13">
-        <v>1</v>
-      </c>
-      <c r="E83" s="13" t="s">
-        <v>1563</v>
-      </c>
-      <c r="G83" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'TRASLADO DE SELLO DE INGRESO A DOC.DE VIAJE NUEVO','TSI','I')</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="13">
-        <v>98</v>
-      </c>
-      <c r="B84" s="14" t="s">
-        <v>1564</v>
-      </c>
-      <c r="C84" s="13" t="s">
-        <v>1041</v>
-      </c>
-      <c r="D84" s="13">
-        <v>1</v>
-      </c>
-      <c r="E84" s="13" t="s">
-        <v>1565</v>
-      </c>
-      <c r="G84" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'DEVOLUCIÓN DE PAGO DE TASAS','DVT','D')</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="13">
-        <v>99</v>
-      </c>
-      <c r="B85" s="14" t="s">
-        <v>1566</v>
-      </c>
-      <c r="C85" s="13" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D85" s="13">
-        <v>1</v>
-      </c>
-      <c r="E85" s="13" t="s">
-        <v>1567</v>
-      </c>
-      <c r="G85" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'ACTUALIZACIÓN DE DATOS EXTRANJERO EN LINEA','ADE','I')</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="13">
-        <v>100</v>
-      </c>
-      <c r="B86" s="14" t="s">
-        <v>1568</v>
-      </c>
-      <c r="C86" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D86" s="13">
-        <v>1</v>
-      </c>
-      <c r="E86" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="G86" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'SUSPENSIÓN DE PASAPORTES','SUP','P')</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="13">
-        <v>101</v>
-      </c>
-      <c r="B87" s="14" t="s">
-        <v>1569</v>
-      </c>
-      <c r="C87" s="13" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D87" s="13">
-        <v>1</v>
-      </c>
-      <c r="E87" s="13" t="s">
-        <v>1570</v>
-      </c>
-      <c r="G87" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'PRORROGA VISA MRE','PMR','I')</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="13">
-        <v>102</v>
-      </c>
-      <c r="B88" s="14" t="s">
-        <v>1571</v>
-      </c>
-      <c r="C88" s="13" t="s">
-        <v>1404</v>
-      </c>
-      <c r="D88" s="13">
-        <v>1</v>
-      </c>
-      <c r="E88" s="13" t="s">
-        <v>1572</v>
-      </c>
-      <c r="G88" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'OFICIO MIGRATORIO PERSONALIZADO','OMP','U')</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="13">
-        <v>103</v>
-      </c>
-      <c r="B89" s="14" t="s">
-        <v>1573</v>
-      </c>
-      <c r="C89" s="13" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D89" s="13">
-        <v>1</v>
-      </c>
-      <c r="E89" s="13" t="s">
-        <v>1574</v>
-      </c>
-      <c r="G89" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'SUBSANACION','SUB','I')</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="13">
-        <v>104</v>
-      </c>
-      <c r="B90" s="14" t="s">
-        <v>1575</v>
-      </c>
-      <c r="C90" s="13" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D90" s="13">
-        <v>1</v>
-      </c>
-      <c r="E90" s="13" t="s">
-        <v>1576</v>
-      </c>
-      <c r="G90" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'ENTREGA DE CARNÉ DE EXTRANJERÍA','ECE','I')</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="13">
-        <v>105</v>
-      </c>
-      <c r="B91" s="14" t="s">
-        <v>1577</v>
-      </c>
-      <c r="C91" s="13" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D91" s="13">
-        <v>1</v>
-      </c>
-      <c r="E91" s="13" t="s">
-        <v>1578</v>
-      </c>
-      <c r="G91" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'ENTREGA DE CARNÉ DE PTP','ETP','I')</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="13">
-        <v>106</v>
-      </c>
-      <c r="B92" s="14" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C92" s="13" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D92" s="13">
-        <v>1</v>
-      </c>
-      <c r="E92" s="13" t="s">
-        <v>1579</v>
-      </c>
-      <c r="G92" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'ENTREGA DE PASAPORTE','EPA','I')</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="13">
-        <v>108</v>
-      </c>
-      <c r="B93" s="14" t="s">
-        <v>1580</v>
-      </c>
-      <c r="C93" s="13" t="s">
-        <v>1404</v>
-      </c>
-      <c r="D93" s="13">
-        <v>1</v>
-      </c>
-      <c r="E93" s="13" t="s">
-        <v>1581</v>
-      </c>
-      <c r="G93" t="str">
-        <f>+"INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES("&amp;Tabla7[[#This Row],[bActivo]]&amp;",'"&amp;Tabla7[[#This Row],[sDescripcion]]&amp;"','"&amp;Tabla7[[#This Row],[sSigla]]&amp;"','"&amp;Tabla7[[#This Row],[sTipo]]&amp;"')"</f>
-        <v>INSERT INTO SidtefimTipoTramite(bActivo, sDescripcion, sSigla, sTipo) VALUES(1,'VULNERABLE','VUL','U')</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
 </file>